--- a/biology/Médecine/Faculté_de_médecine_de_Paris-Saclay/Faculté_de_médecine_de_Paris-Saclay.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_de_Paris-Saclay/Faculté_de_médecine_de_Paris-Saclay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de médecine de l'université Paris-Saclay est une UFR universitaire, composante de l'université Paris-Saclay. Créée par décret en 1968, la faculté de médecine Paris-Sud est installée dans l'enceinte de l'hôpital Bicêtre en 1980. Elle est l'une des sept facultés de médecine d'Île-de-France.
-Elle est associée au nouveau GHU Paris-Saclay de l'AP-HP avec, entre autres, les hôpitaux Sainte-Périne, Ambroise Paré, Raymond-Poincaré, Antoine-Béclère, Bicêtre, Paul-Brousse et l'Hôpital maritime de Berck[1].
+Elle est associée au nouveau GHU Paris-Saclay de l'AP-HP avec, entre autres, les hôpitaux Sainte-Périne, Ambroise Paré, Raymond-Poincaré, Antoine-Béclère, Bicêtre, Paul-Brousse et l'Hôpital maritime de Berck.
 Depuis 2019, le GHU Paris-Saclay réunit les CHU Paris-Sud (Bicêtre, Antoine-Béclère, Paul-Brousse) et Paris-Ile-de-France-Ouest (Raymond-Poincaré, Ambroise-Paré, Sainte-Périne, Berck).
-La première année (PASS) se fait à Orsay et au Kremlin-Bicetre, puis le reste des études à l'hôpital Bicêtre[2]. L'autre option pour la première année, la LAS peut se faire à Orsay ou Nanterre.
+La première année (PASS) se fait à Orsay et au Kremlin-Bicetre, puis le reste des études à l'hôpital Bicêtre. L'autre option pour la première année, la LAS peut se faire à Orsay ou Nanterre.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,34 +528,218 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Siège de la faculté et sites d'enseignement principaux
-Le siège de la faculté de médecine de l'université Paris-Saclay est situé à l'hôpital Bicêtre au 63, rue Gabriel Péri au Kremlin-Bicêtre dans le Val-de-Marne. Ce site historique a vu la mise en place d'un programme de rénovation, lancé dans les années 1970, avec la construction d'un nouveau centre hospitalier universitaire (CHU) réalisé sur les plans d'André Bourdon, architecte français.
+          <t>Siège de la faculté et sites d'enseignement principaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le siège de la faculté de médecine de l'université Paris-Saclay est situé à l'hôpital Bicêtre au 63, rue Gabriel Péri au Kremlin-Bicêtre dans le Val-de-Marne. Ce site historique a vu la mise en place d'un programme de rénovation, lancé dans les années 1970, avec la construction d'un nouveau centre hospitalier universitaire (CHU) réalisé sur les plans d'André Bourdon, architecte français.
 Site d'enseignement principal à l'hôpital Bicêtre
-Site d'enseignement dans l'hôpital Paul Brousse (cinq diplômes universitaires y sont proposés[3])
+Site d'enseignement dans l'hôpital Paul Brousse (cinq diplômes universitaires y sont proposés)
 Site d'enseignement dans l'hôpital Antoine Béclère
-École des sciences du cancer de l'Université Paris-Saclay situé sur le campus de l'Institut Gustave-Roussy[4]
-École doctorale de Cancérologie, Biologie, Médecine, Santé de l'Université Paris-Saclay situé sur le campus de l'Institut Gustave-Roussy
-Hôpitaux conventionnés
-Centre hospitalier sud francilien de Corbeil-Essonnes (Essonne)
+École des sciences du cancer de l'Université Paris-Saclay situé sur le campus de l'Institut Gustave-Roussy
+École doctorale de Cancérologie, Biologie, Médecine, Santé de l'Université Paris-Saclay situé sur le campus de l'Institut Gustave-Roussy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hôpitaux conventionnés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Centre hospitalier sud francilien de Corbeil-Essonnes (Essonne)
 Groupe hospitalier Nord-Essonne de Longjumeau (Essonne)
 Service hospitalier Frédéric-Joliot à Orsay (Essonne)
 Centre chirurgical Marie-Lannelongue au Plessis-Robinson (Hauts-de-Seine)
 Hôpital d'instruction des armées Percy de Clamart (Hauts-de-Seine)
 Fondation Vallée de Gentilly (Val-de-Marne)
-Hôpital américain de Paris (Paris)
-Instituts de formation en soins infirmiers rattachés
-Différents instituts de formation d'infimiers sont rattachés à la faculté de médecine[5] :
-AP-HP
-Institut en soins infirmiers Antoine Béclère de Clamart (Essonne)
-Institut en soins infirmiers Bicêtre du Kremlin-Bicêtre (Val-de-Marne)
-Hors AP-HP
-Institut en soins infirmiers Barthélémy Durand d'Étampes (Essonne)
+Hôpital américain de Paris (Paris)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Instituts de formation en soins infirmiers rattachés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différents instituts de formation d'infimiers sont rattachés à la faculté de médecine :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Instituts de formation en soins infirmiers rattachés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>AP-HP</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Institut en soins infirmiers Antoine Béclère de Clamart (Essonne)
+Institut en soins infirmiers Bicêtre du Kremlin-Bicêtre (Val-de-Marne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Instituts de formation en soins infirmiers rattachés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hors AP-HP</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Institut en soins infirmiers Barthélémy Durand d'Étampes (Essonne)
 Institut en soins infirmiers de Longjumeau (Essonne)
 Institut en soins infirmiers Paul Guiraud de Villejuif (Val-de-Marne)
 Institut en soins infirmiers de Perray-Vaucluse d'Épinay-sur-Orge (Essonne)
-Institut en soins infirmiers du Centre Hospitalier Sud Francilien de Corbeil-Essonnes (Essonne)
-Hôpitaux universitaires du GHU Université Paris-Saclay de l'APHP
-Hôpital Sainte-Périne
+Institut en soins infirmiers du Centre Hospitalier Sud Francilien de Corbeil-Essonnes (Essonne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hôpitaux universitaires du GHU Université Paris-Saclay de l'APHP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hôpital Sainte-Périne
 Hôpital Ambroise-Paré
 Hôpital Raymond-Poincaré
 Hôpital Antoine-Béclère
@@ -553,71 +749,75 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecine (formation initiale 1er et 2e Cycle) : DFGSM2, DFGSM3 pour le premier cycle et DFASM1, DFASM2, DFASM3 pour le deuxième cycle. La PACES (Première année commune aux études de santé, DFGSM1), se déroule à la Faculté des sciences à Orsay et à la Faculté de Pharmacie à Châtenay-Malabry[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecine (formation initiale 1er et 2e Cycle) : DFGSM2, DFGSM3 pour le premier cycle et DFASM1, DFASM2, DFASM3 pour le deuxième cycle. La PACES (Première année commune aux études de santé, DFGSM1), se déroule à la Faculté des sciences à Orsay et à la Faculté de Pharmacie à Châtenay-Malabry.
 Médecine (formation initiale 3e Cycle): DES, DESC, DU
 Médecine (formation continue)
 Électroradiologie médicale à Institut de Formation de Manipulateurs en Electroradiologie Médicale du Centre Hospitalier Sud-Francilien
-Soins infirmiers dans les IFSI qui lui sont rattachés[5]
+Soins infirmiers dans les IFSI qui lui sont rattachés
 Les cursus ne sont pas encore passés au système LMD.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Informations pratiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Directeur de l'UFR : Didier Samuel
 Chef des services administratifs : Feryel Karroucha
-L'UFR (chiffres 2020), en quelques chiffres[6] :
+L'UFR (chiffres 2020), en quelques chiffres :
 4 800 étudiants,
 303 enseignants hospitalo-universitaires,
 117 personnels IATOSS,
@@ -628,31 +828,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vie étudiante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
